--- a/docs/odh/shr-core-Organization.xlsx
+++ b/docs/odh/shr-core-Organization.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$38</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="271">
   <si>
     <t>Path</t>
   </si>
@@ -149,8 +149,8 @@
     <t>shr-core-Organization</t>
   </si>
   <si>
-    <t>A social or legal structure formed by human beings.
-Organization type is restricted to 0..1 in FHIR DSTU2, similarly restricted here.</t>
+    <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action. Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.
+Organization type is restricted to 0..1 in FHIR DSTU2, similarly restricted here. Other required attributes come from STU 3 mapping to us-core-organization.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -207,13 +207,162 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t>Organization.implicitRules</t>
+    <t>Organization.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Organization.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>sourcesystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-SourceSystem-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>FHIR: This provides a minimal amount of Provenance information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.
+FHIM: Identifies the computer system that created the medical record. This optional field may also be used to indicate that the medical record was originally created by a different organization from the one that is currently storing or utilizing the record in that the assigning authority of the Id could be set to that originating organization. This property is optional, as some systems will assume that all records that it contains originated in that system, however it is anticipated that it will become increasingly commonplace for records from multiple systems and organizations will be comingled in order to provide a complete picture of the patient's health record.</t>
+  </si>
+  <si>
+    <t>Organization.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Organization.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
+  </si>
+  <si>
+    <t>Organization.meta.profile</t>
   </si>
   <si>
     <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url]().</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Organization.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Organization.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Organization.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -243,9 +392,6 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>A human language.</t>
   </si>
   <si>
@@ -314,106 +460,40 @@
     <t>Organization.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Status-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
+    <t>A state that relates to the workflow or interpretation of this resource. Certain status values can modify the meaning of the resource, for example, entered-in-error. When a boolean value is used, Status of true indicates the record is active, false means inactive.</t>
+  </si>
+  <si>
+    <t>alias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Alias-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Status-extension]]} {[]}
+    <t>A list of alternate names the subject is or was known as.</t>
+  </si>
+  <si>
+    <t>contactperson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ContactPerson-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>A state that relates to the workflow or interpretation of this resource. Certain status values can modify the meaning of the resource, for example, entered-in-error. When a boolean value is used, Status of true indicates the record is active, false means inactive.</t>
-  </si>
-  <si>
-    <t>Organization.extension.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Organization.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Organization.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Status-extension"/&gt;</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Organization.extension.valueCodeableConcept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/ActiveOrInactiveVS</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
+    <t>A contact party (e.g. guardian, partner, friend) for the person</t>
   </si>
   <si>
     <t>Organization.modifierExtension</t>
@@ -446,9 +526,6 @@
   <si>
     <t xml:space="preserve">org-1
 </t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t>XON.10 / XON.3</t>
@@ -496,6 +573,10 @@
     <t>Organization.type</t>
   </si>
   <si>
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
+</t>
+  </si>
+  <si>
     <t>Kind of organization</t>
   </si>
   <si>
@@ -510,9 +591,6 @@
     <t>Need to be able to track the kind of organization that this is - different organization types have different uses.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>Used to categorize the organization</t>
   </si>
   <si>
@@ -640,7 +718,7 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Organization]]}
 </t>
   </si>
   <si>
@@ -686,9 +764,6 @@
   </si>
   <si>
     <t>Organization.contact.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Organization.contact.modifierExtension</t>
@@ -945,7 +1020,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN32"/>
+  <dimension ref="A1:AM38"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -954,8 +1029,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.91796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.6171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.93359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -977,11 +1052,11 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="52.13671875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.56640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="43.53515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1462,10 +1537,10 @@
         <v>40</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>63</v>
@@ -1476,9 +1551,7 @@
       <c r="L5" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="M5" t="s" s="2">
-        <v>66</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>40</v>
@@ -1527,7 +1600,7 @@
         <v>40</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>41</v>
@@ -1548,7 +1621,7 @@
         <v>40</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>40</v>
@@ -1560,14 +1633,14 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>40</v>
@@ -1579,16 +1652,16 @@
         <v>40</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1614,37 +1687,37 @@
         <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA6" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AB6" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="AC6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>40</v>
@@ -1659,7 +1732,7 @@
         <v>40</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>40</v>
@@ -1667,11 +1740,13 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="C7" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -1692,15 +1767,11 @@
       <c r="J7" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="K7" s="2"/>
+      <c r="L7" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="L7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>82</v>
-      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
         <v>40</v>
@@ -1749,16 +1820,16 @@
         <v>40</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>40</v>
@@ -1770,7 +1841,7 @@
         <v>40</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>40</v>
@@ -1778,18 +1849,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>40</v>
@@ -1798,19 +1869,19 @@
         <v>40</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1859,15 +1930,11 @@
       <c r="AD8" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE8" t="s" s="2">
-        <v>92</v>
-      </c>
+      <c r="AE8" s="2"/>
       <c r="AF8" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG8" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG8" s="2"/>
       <c r="AH8" t="s" s="2">
         <v>40</v>
       </c>
@@ -1881,7 +1948,7 @@
         <v>40</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>40</v>
@@ -1889,19 +1956,19 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="F9" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="G9" t="s" s="2">
         <v>40</v>
       </c>
@@ -1909,19 +1976,19 @@
         <v>40</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -1959,24 +2026,22 @@
         <v>40</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AE9" s="2"/>
       <c r="AF9" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG9" s="2"/>
       <c r="AH9" t="s" s="2">
         <v>40</v>
       </c>
@@ -1990,7 +2055,7 @@
         <v>40</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>40</v>
@@ -1998,20 +2063,18 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>40</v>
@@ -2020,16 +2083,20 @@
         <v>40</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="L10" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>40</v>
@@ -2077,15 +2144,11 @@
       <c r="AD10" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE10" t="s" s="2">
-        <v>102</v>
-      </c>
+      <c r="AE10" s="2"/>
       <c r="AF10" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG10" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG10" s="2"/>
       <c r="AH10" t="s" s="2">
         <v>40</v>
       </c>
@@ -2107,7 +2170,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2118,7 +2181,7 @@
         <v>41</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>40</v>
@@ -2127,18 +2190,20 @@
         <v>40</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>40</v>
@@ -2163,13 +2228,13 @@
         <v>40</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>40</v>
@@ -2186,15 +2251,11 @@
       <c r="AD11" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE11" t="s" s="2">
-        <v>110</v>
-      </c>
+      <c r="AE11" s="2"/>
       <c r="AF11" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG11" t="s" s="2">
-        <v>50</v>
-      </c>
+      <c r="AG11" s="2"/>
       <c r="AH11" t="s" s="2">
         <v>40</v>
       </c>
@@ -2208,7 +2269,7 @@
         <v>40</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>40</v>
@@ -2216,7 +2277,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2227,7 +2288,7 @@
         <v>41</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>40</v>
@@ -2236,18 +2297,20 @@
         <v>40</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>40</v>
@@ -2272,13 +2335,13 @@
         <v>40</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>40</v>
@@ -2295,15 +2358,11 @@
       <c r="AD12" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE12" t="s" s="2">
-        <v>114</v>
-      </c>
+      <c r="AE12" s="2"/>
       <c r="AF12" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG12" s="2"/>
       <c r="AH12" t="s" s="2">
         <v>40</v>
       </c>
@@ -2325,7 +2384,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2333,7 +2392,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>50</v>
@@ -2342,28 +2401,30 @@
         <v>40</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>40</v>
@@ -2405,10 +2466,10 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>50</v>
@@ -2426,7 +2487,7 @@
         <v>40</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>40</v>
@@ -2434,7 +2495,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2442,7 +2503,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>50</v>
@@ -2457,15 +2518,17 @@
         <v>40</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>40</v>
@@ -2490,11 +2553,13 @@
         <v>40</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="X14" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="Y14" t="s" s="2">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>40</v>
@@ -2512,7 +2577,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -2533,7 +2598,7 @@
         <v>40</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>40</v>
@@ -2541,39 +2606,39 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2623,17 +2688,17 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH15" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AF15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="AI15" t="s" s="2">
         <v>40</v>
       </c>
@@ -2644,49 +2709,49 @@
         <v>40</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>40</v>
       </c>
@@ -2734,7 +2799,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2743,65 +2808,63 @@
         <v>42</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>139</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" hidden="true">
+      <c r="A17" t="s" s="2">
         <v>140</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
@@ -2835,25 +2898,23 @@
         <v>40</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>40</v>
@@ -2862,23 +2923,25 @@
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>40</v>
       </c>
@@ -2896,23 +2959,17 @@
         <v>40</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="K18" s="2"/>
       <c r="L18" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>40</v>
       </c>
@@ -2936,13 +2993,13 @@
         <v>40</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>40</v>
@@ -2960,7 +3017,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -2975,57 +3032,53 @@
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>161</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="C19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="K19" s="2"/>
       <c r="L19" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>40</v>
       </c>
@@ -3073,28 +3126,28 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>40</v>
@@ -3102,9 +3155,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>40</v>
       </c>
@@ -3125,20 +3180,14 @@
         <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="K20" s="2"/>
       <c r="L20" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>40</v>
       </c>
@@ -3186,7 +3235,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3207,51 +3256,49 @@
         <v>40</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H21" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="I21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>176</v>
+        <v>70</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>40</v>
       </c>
@@ -3299,7 +3346,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3308,19 +3355,19 @@
         <v>42</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>182</v>
+        <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>40</v>
@@ -3328,7 +3375,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3348,22 +3395,20 @@
         <v>40</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>40</v>
@@ -3412,7 +3457,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3421,27 +3466,27 @@
         <v>42</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3449,35 +3494,37 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="N23" t="s" s="2">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
@@ -3523,7 +3570,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3538,21 +3585,21 @@
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>40</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3563,7 +3610,7 @@
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>40</v>
@@ -3572,22 +3619,22 @@
         <v>40</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -3612,13 +3659,13 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>40</v>
+        <v>182</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>40</v>
@@ -3636,7 +3683,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3648,24 +3695,24 @@
         <v>40</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>40</v>
+        <v>185</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3673,31 +3720,35 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
       </c>
@@ -3745,7 +3796,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3754,19 +3805,19 @@
         <v>50</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>40</v>
@@ -3774,11 +3825,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -3797,18 +3848,20 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>97</v>
+        <v>195</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>40</v>
       </c>
@@ -3856,7 +3909,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>114</v>
+        <v>194</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -3877,49 +3930,51 @@
         <v>40</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>40</v>
       </c>
@@ -3967,7 +4022,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -3976,27 +4031,27 @@
         <v>42</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>40</v>
+        <v>207</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>93</v>
+        <v>209</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4004,13 +4059,13 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>40</v>
@@ -4019,17 +4074,19 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="N28" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>40</v>
@@ -4054,13 +4111,13 @@
         <v>40</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>221</v>
+        <v>40</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>40</v>
@@ -4078,28 +4135,28 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AI28" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AF28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="AJ28" t="s" s="2">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>40</v>
+        <v>218</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>40</v>
@@ -4107,7 +4164,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4127,20 +4184,20 @@
         <v>40</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>40</v>
@@ -4189,7 +4246,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4204,13 +4261,13 @@
         <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>229</v>
+        <v>173</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>40</v>
@@ -4218,7 +4275,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4241,17 +4298,19 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="N30" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>40</v>
@@ -4300,7 +4359,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4312,16 +4371,16 @@
         <v>40</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>40</v>
+        <v>232</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>235</v>
+        <v>40</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>40</v>
@@ -4329,7 +4388,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4352,18 +4411,16 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>187</v>
+        <v>63</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>238</v>
+        <v>64</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>239</v>
+        <v>65</v>
       </c>
       <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>240</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>40</v>
       </c>
@@ -4411,7 +4468,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>237</v>
+        <v>66</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4429,22 +4486,22 @@
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>241</v>
+        <v>40</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>242</v>
+        <v>67</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4454,7 +4511,7 @@
         <v>42</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>40</v>
@@ -4463,18 +4520,18 @@
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>244</v>
+        <v>70</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>245</v>
+        <v>71</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>40</v>
       </c>
@@ -4522,7 +4579,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>243</v>
+        <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4543,14 +4600,680 @@
         <v>40</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="AM32" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM32">
+  <autoFilter ref="A1:AM38">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -4560,7 +5283,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI31">
+  <conditionalFormatting sqref="A2:AI37">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
